--- a/Evaluierung/rel_bilder_inhalt.xlsx
+++ b/Evaluierung/rel_bilder_inhalt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20370" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
   <si>
     <t>Person 1</t>
   </si>
@@ -27,6 +27,12 @@
     <t>Politik genauer</t>
   </si>
   <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
     <t>Person 2</t>
   </si>
   <si>
@@ -37,14 +43,154 @@
   </si>
   <si>
     <t>Wissen genauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leiter Finanz und Rechnungswesen </t>
+  </si>
+  <si>
+    <t>männlich</t>
+  </si>
+  <si>
+    <t>Politik Artikel</t>
+  </si>
+  <si>
+    <t>Wissen Artikel</t>
+  </si>
+  <si>
+    <t>Skelett aus Eiweiß-Würmchen hält Chromosomen zusammen</t>
+  </si>
+  <si>
+    <t>Graf Zeppelin hat das Zeppelin nicht erfunden</t>
+  </si>
+  <si>
+    <t>Deutsche Fliegennetze für Afrikas Rinder</t>
+  </si>
+  <si>
+    <t>Waldbrand bedroht Stromversorgung</t>
+  </si>
+  <si>
+    <t>Hat nur der Mensch Sex in der Missionarsstellung?</t>
+  </si>
+  <si>
+    <t>Fukushima ersäuft in verstrahltem Wasser</t>
+  </si>
+  <si>
+    <t>Deutsche Politik einheitlich gegen Militärschlag in Syrien</t>
+  </si>
+  <si>
+    <t>Wir werden ein schlechtes Erbe antreten</t>
+  </si>
+  <si>
+    <t>Deutschland will von UN-Ausspähung nichts gewusst haben</t>
+  </si>
+  <si>
+    <t>Islamisten wollen Giftgasangriff rächen</t>
+  </si>
+  <si>
+    <t>Bo Xilai nennt Zeugen Lügner</t>
+  </si>
+  <si>
+    <t>Prozess gegen Anführer der Muslimbrüder offenbar vertagt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja </t>
+  </si>
+  <si>
+    <t>Auswertung</t>
+  </si>
+  <si>
+    <t>Gesamt genauer</t>
+  </si>
+  <si>
+    <t>ges. Anzahl</t>
+  </si>
+  <si>
+    <t>richtig</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P1 /grob</t>
+  </si>
+  <si>
+    <t>P1 /genau</t>
+  </si>
+  <si>
+    <t>P2/grob</t>
+  </si>
+  <si>
+    <t>P2/genau</t>
+  </si>
+  <si>
+    <t>Anzahl Teilnehmer</t>
+  </si>
+  <si>
+    <t>grob</t>
+  </si>
+  <si>
+    <t>genau</t>
+  </si>
+  <si>
+    <t>Gesamt grob</t>
+  </si>
+  <si>
+    <t>Person 3</t>
+  </si>
+  <si>
+    <t>Beruf</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>Person 4</t>
+  </si>
+  <si>
+    <t>Person 5</t>
+  </si>
+  <si>
+    <t>Business Coach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weiblich </t>
+  </si>
+  <si>
+    <t>58 Jahre</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,10 +206,143 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -72,16 +351,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,182 +713,1199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8">
+        <f>(J2/I2)*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9">
+        <v>24</v>
+      </c>
+      <c r="J3" s="9">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9">
+        <f>(J3/I3)*100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="8">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8">
+        <v>9</v>
+      </c>
+      <c r="K5" s="8">
+        <f>(J5/I5)*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="9">
+        <f>(J6/I6)*100</f>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>D7/C7*100</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E8">
+        <f>D8/C8*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8">
+        <f>(J8/I8)*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <f>(J9/I9)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>D10/C10*100</f>
+        <v>50</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>D11/C11*100</f>
+        <v>50</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>D13/C13*100</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>D14/C14*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>D16/C16*100</f>
+        <v>100</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>D17/C17*100</f>
+        <v>50</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f>D19/C19*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>D20/C20*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f>D22/C22*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>D23/C23*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>D26/C26*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>D27/C27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f>D29/C29*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>D30/C30*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>D32/C32*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>D33/C33*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f>D35/C35*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>D36/C36*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f>D38/C38*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>D39/C39*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f>D41/C41*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <f>B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>D42/C42*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="I44" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>4</v>
+      </c>
+      <c r="F45" s="7">
         <v>5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G45" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I45" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="I54" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
+        <v>1</v>
+      </c>
+      <c r="C55" s="14">
+        <v>2</v>
+      </c>
+      <c r="D55" s="14">
+        <v>3</v>
+      </c>
+      <c r="E55" s="14">
+        <v>4</v>
+      </c>
+      <c r="F55" s="14">
+        <v>5</v>
+      </c>
+      <c r="G55" s="13">
         <v>6</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="I55" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="I64" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14">
+        <v>2</v>
+      </c>
+      <c r="D65" s="14">
+        <v>3</v>
+      </c>
+      <c r="E65" s="14">
+        <v>4</v>
+      </c>
+      <c r="F65" s="14">
+        <v>5</v>
+      </c>
+      <c r="G65" s="13">
+        <v>6</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="3"/>
+      <c r="I66" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="5"/>
+      <c r="I67" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="I74" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="14">
+        <v>1</v>
+      </c>
+      <c r="C75" s="14">
+        <v>2</v>
+      </c>
+      <c r="D75" s="14">
+        <v>3</v>
+      </c>
+      <c r="E75" s="14">
+        <v>4</v>
+      </c>
+      <c r="F75" s="14">
+        <v>5</v>
+      </c>
+      <c r="G75" s="13">
+        <v>6</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="3"/>
+      <c r="I76" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="5"/>
+      <c r="I77" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="I84" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="14">
+        <v>1</v>
+      </c>
+      <c r="C85" s="14">
+        <v>2</v>
+      </c>
+      <c r="D85" s="14">
+        <v>3</v>
+      </c>
+      <c r="E85" s="14">
+        <v>4</v>
+      </c>
+      <c r="F85" s="14">
+        <v>5</v>
+      </c>
+      <c r="G85" s="13">
+        <v>6</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="3"/>
+      <c r="I86" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="5"/>
+      <c r="I87" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="5">
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
